--- a/xlsx/西班牙语_intext.xlsx
+++ b/xlsx/西班牙语_intext.xlsx
@@ -15,1383 +15,1359 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="451">
   <si>
     <t>西班牙语</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_西班牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
+  </si>
+  <si>
+    <t>西班牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
+  </si>
+  <si>
+    <t>安道尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>拉丁美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>赤道几内亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%92%92%E5%93%88%E6%8B%89</t>
+  </si>
+  <si>
+    <t>西撒哈拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8D%E6%B4%BB%E8%8A%82%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>复活节岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>澳大利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
+  </si>
+  <si>
+    <t>伦敦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>亚洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
+  </si>
+  <si>
+    <t>菲律宾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80%E7%B3%BB%E5%B1%9E%E5%88%86%E7%B1%BB</t>
+  </si>
+  <si>
+    <t>语言系属分类</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E6%AC%A7%E8%AF%AD%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>印欧语系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AF%AD%E6%97%8F</t>
+  </si>
+  <si>
+    <t>意大利语族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%9B%BC%E8%AF%AD%E6%97%8F</t>
+  </si>
+  <si>
+    <t>罗曼语族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9-%E8%A5%BF%E7%BD%97%E6%9B%BC%E8%AF%AD%E6%94%AF</t>
+  </si>
+  <si>
+    <t>意大利-西罗曼语支</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%AF%94%E5%88%A9%E4%BA%9A-%E7%BD%97%E6%9B%BC%E8%AF%AD%E6%94%AF</t>
+  </si>
+  <si>
+    <t>伊比利亚-罗曼语支</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BC%8A%E6%AF%94%E5%88%A9%E4%BA%9E%E8%AA%9E%E6%94%AF</t>
+  </si>
+  <si>
+    <t>西伊比利亚语支</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%97</t>
+  </si>
+  <si>
+    <t>文字</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E5%AD%97%E6%AF%8D</t>
+  </si>
+  <si>
+    <t>拉丁字母</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>官方语言列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AF%AD%E8%A8%80%E4%B8%BA%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD%E7%9A%84%E5%9B%BD%E5%AE%B6%E5%92%8C%E5%9C%B0%E5%8C%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>官方语言为西班牙语的国家和地区列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>联合国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>欧洲联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>非洲联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E7%9A%87%E5%AE%B6%E5%AD%B8%E9%99%A2</t>
+  </si>
+  <si>
+    <t>西班牙皇家学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ISO_639-1</t>
+  </si>
+  <si>
+    <t>ISO 639-1</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ISO_639-2</t>
+  </si>
+  <si>
+    <t>ISO 639-2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ISO_639-3</t>
+  </si>
+  <si>
+    <t>ISO 639-3</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E9%9F%B3%E6%A0%87</t>
+  </si>
+  <si>
+    <t>国际音标</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%93%8D%E4%BD%9C%E7%B3%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>操作系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E9%A1%B5%E6%B5%8F%E8%A7%88%E5%99%A8</t>
+  </si>
+  <si>
+    <t>网页浏览器</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%B1%E7%A0%81</t>
+  </si>
+  <si>
+    <t>乱码</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%AF%E6%8F%90%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>卡斯提亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
+  </si>
+  <si>
+    <t>语言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2%E5%9C%8B%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>拉丁美洲国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E8%AF%AD%E8%A8%80</t>
+  </si>
+  <si>
+    <t>第一语言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E6%A8%99%E6%BA%96%E6%BC%A2%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>现代标准汉语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>汉语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>法语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>阿拉伯语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
+  </si>
+  <si>
+    <t>官方语言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%9B%BC%E8%AA%9E%E6%97%8F</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%AF%94%E5%88%A9%E5%8D%8A%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>伊比利半岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E4%BF%97%E6%8B%89%E4%B8%81%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>通俗拉丁语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%96%AF%E5%85%8B%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>巴斯克语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%85%E9%9F%B3%E5%BC%B1%E5%8C%96</t>
+  </si>
+  <si>
+    <t>辅音弱化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%85%AD%E9%9F%B3%E5%8C%96</t>
+  </si>
+  <si>
+    <t>腭音化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%BA%AA</t>
+  </si>
+  <si>
+    <t>中世纪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>犹太人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%B1%AC%E6%9D%B1%E5%8D%B0%E5%BA%A6%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>西属东印度群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%B8%9D%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>西班牙帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B8%82</t>
+  </si>
+  <si>
+    <t>纽约市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%93%88%E8%8E%B1%E5%A7%86</t>
+  </si>
+  <si>
+    <t>东哈莱姆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E4%B8%87%E6%8F%90%E6%96%AF</t>
+  </si>
+  <si>
+    <t>塞万提斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD%E5%9B%BD%E5%AE%B6%E5%92%8C%E5%9C%B0%E5%8C%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>西班牙语国家和地区列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>欧盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E5%85%B1%E5%90%8C%E5%B8%82%E5%A0%B4</t>
+  </si>
+  <si>
+    <t>南方共同市场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
+  </si>
+  <si>
+    <t>阿根廷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>玻利维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
+  </si>
+  <si>
+    <t>智利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>哥伦比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>哥斯达黎加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
+  </si>
+  <si>
+    <t>古巴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>多米尼加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
+  </si>
+  <si>
+    <t>厄瓜多尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A</t>
+  </si>
+  <si>
+    <t>萨尔瓦多</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89</t>
+  </si>
+  <si>
+    <t>危地马拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF</t>
+  </si>
+  <si>
+    <t>洪都拉斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
+  </si>
+  <si>
+    <t>尼加拉瓜</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC</t>
+  </si>
+  <si>
+    <t>巴拿马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
+  </si>
+  <si>
+    <t>巴拉圭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81</t>
+  </si>
+  <si>
+    <t>秘鲁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
+  </si>
+  <si>
+    <t>波多黎各</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
+  </si>
+  <si>
+    <t>乌拉圭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%86%85%E7%91%9E%E6%8B%89</t>
+  </si>
+  <si>
+    <t>委内瑞拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新墨西哥州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E5%85%B9</t>
+  </si>
+  <si>
+    <t>伯利兹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
+  </si>
+  <si>
+    <t>直布罗陀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
+  </si>
+  <si>
+    <t>以色列</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
+  </si>
+  <si>
+    <t>摩洛哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0</t>
+  </si>
+  <si>
+    <t>荷兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%AB%8B%E5%B0%BC%E8%BE%BE%E5%92%8C%E5%A4%9A%E5%B7%B4%E5%93%A5</t>
+  </si>
+  <si>
+    <t>特立尼达和多巴哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%AF%E8%92%82%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>卡斯蒂利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD%E5%AD%97%E6%AF%8D</t>
+  </si>
+  <si>
+    <t>西班牙语字母</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/A</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/B</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Ch</t>
+  </si>
+  <si>
+    <t>Ch</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/D</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/E</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/F</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/G</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/H</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/I</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/J</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/K</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/L</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Ll</t>
+  </si>
+  <si>
+    <t>Ll</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/M</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/N</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%C3%91</t>
+  </si>
+  <si>
+    <t>Ñ</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/O</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/P</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Q</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/R</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/S</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/T</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/U</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/V</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/W</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/X</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Y</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Z</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%C3%81</t>
+  </si>
+  <si>
+    <t>Á</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%C3%89</t>
+  </si>
+  <si>
+    <t>É</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%C3%8D</t>
+  </si>
+  <si>
+    <t>Í</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%C3%93</t>
+  </si>
+  <si>
+    <t>Ó</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%C3%9A</t>
+  </si>
+  <si>
+    <t>Ú</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%C3%9C</t>
+  </si>
+  <si>
+    <t>Ü</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E6%B3%95</t>
+  </si>
+  <si>
+    <t>语法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD%E8%AF%AD%E6%B3%95</t>
+  </si>
+  <si>
+    <t>西班牙语语法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%88%E6%8A%98%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>屈折语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E6%80%81</t>
+  </si>
+  <si>
+    <t>时态</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E6%B0%94</t>
+  </si>
+  <si>
+    <t>语气</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%93_(%E8%AF%AD%E6%B3%95)</t>
+  </si>
+  <si>
+    <t>体 (语法)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E6%80%81</t>
+  </si>
+  <si>
+    <t>语态</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%A7_(%E8%AF%AD%E6%B3%95)</t>
+  </si>
+  <si>
+    <t>性 (语法)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B0_(%E8%AF%AD%E6%B3%95)</t>
+  </si>
+  <si>
+    <t>数 (语法)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E6%8B%89%E4%B8%81%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>古典拉丁语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>俄语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E7%BD%AE%E8%A9%9E</t>
+  </si>
+  <si>
+    <t>前置词</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%B0%93%E5%AE%BE%E7%BB%93%E6%9E%84</t>
+  </si>
+  <si>
+    <t>主谓宾结构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E8%AF%8D</t>
+  </si>
+  <si>
+    <t>动词</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD%E5%8A%A8%E8%AF%8D</t>
+  </si>
+  <si>
+    <t>西班牙语动词</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Inverted_question_and_exclamation_marks</t>
+  </si>
+  <si>
+    <t>en-Inverted question and exclamation marks</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E8%A9%9E</t>
+  </si>
+  <si>
+    <t>副词</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD%E6%AD%A3%E5%86%99%E6%B3%95</t>
+  </si>
+  <si>
+    <t>西班牙语正写法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
+  </si>
+  <si>
+    <t>维基百科</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/</t>
+  </si>
+  <si>
+    <t>es-</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
+  </si>
+  <si>
+    <t>维基文库</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
+  </si>
+  <si>
+    <t>维基词典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E%E5%8B%95%E8%A9%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E%E8%A8%80</t>
+  </si>
+  <si>
+    <t>西班牙语言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>美国的西班牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Ye%C3%ADsmo</t>
+  </si>
+  <si>
+    <t>Yeísmo</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Seseo</t>
+  </si>
+  <si>
+    <t>Seseo</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Voseo</t>
+  </si>
+  <si>
+    <t>Voseo</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>西班牙文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E%E5%9C%8B%E5%AE%B6%E5%92%8C%E5%9C%B0%E5%8D%80%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%A3%94</t>
+  </si>
+  <si>
+    <t>西班牙裔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%AF%94%E5%88%A9%E5%90%89%E6%99%AE%E8%B3%BD%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>伊比利吉普赛语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%93%A6%E5%8D%A1%E8%AB%BE%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>查瓦卡诺语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%BF%AA%E8%AB%BE%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>拉迪诺语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%9A%AE%E9%98%BF%E9%97%A8%E6%89%98%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>帕皮阿门托语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E8%8E%AB%E7%BD%97%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>查莫罗语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
+  </si>
+  <si>
+    <t>Wayback Machine</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%85%E6%9B%BC%E8%AA%9E%E6%97%8F</t>
+  </si>
+  <si>
+    <t>Template talk-罗曼语族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E7%BE%85%E6%9B%BC%E8%AA%9E%E6%94%AF</t>
+  </si>
+  <si>
+    <t>东罗曼语支</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>罗马尼亚语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>阿罗马尼亚语</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Megleno-Romanian_language</t>
+  </si>
+  <si>
+    <t>en-Megleno-Romanian language</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9-%E9%81%94%E7%88%BE%E9%A6%AC%E6%8F%90%E4%BA%9E%E8%AA%9E%E6%94%AF</t>
+  </si>
+  <si>
+    <t>义大利-达尔马提亚语支</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E5%B0%94%E9%A9%AC%E6%8F%90%E4%BA%9A%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>达尔马提亚语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>意大利语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E5%9D%A1%E9%87%8C%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>拿坡里语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%A5%BF%E9%87%8C%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>西西里语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%B1%B3%E5%88%A9%E4%BA%9E-%E7%BE%85%E9%A6%AC%E6%B6%85%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>艾米利亚-罗马涅语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%8F%A4%E9%87%8C%E4%BA%9A%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>利古里亚语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E5%B7%B4%E5%BA%95%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>伦巴底语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%9F%83%E8%92%99%E7%89%B9%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>皮埃蒙特语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%BC%E6%96%AF%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>威尼斯语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E4%BE%9D%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>奥依语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%87%E5%8D%A1%E5%BA%95%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>庇卡底语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B-%E6%99%AE%E7%BE%85%E6%97%BA%E6%96%AF%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>法兰克-普罗旺斯语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E9%BE%8D%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>瓦龙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%89%98-%E7%BE%85%E6%9B%BC%E6%96%AF%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>列托-罗曼斯语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E7%95%99%E5%88%A9%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>弗留利语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%99%BB%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>拉登语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%9B%BC%E4%BB%80%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>罗曼什语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BE%85%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>加泰罗尼亚语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E4%BC%A6%E8%A5%BF%E4%BA%9A%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>巴伦西亚语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>奥克语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%96%AF%E5%9C%96%E9%87%8C%E4%BA%9E%E6%96%AF%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>阿斯图里亚斯语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%85%B0%E5%BE%B7%E6%96%AF%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>米兰德斯语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E6%96%AF%E7%89%B9%E9%9B%B7%E9%A6%AC%E6%9D%9C%E6%8B%89%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>埃斯特雷马杜拉语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA-%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>犹太-西班牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%8B%89%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>法拉语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E8%A5%BF%E4%BA%9E%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>加利西亚语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>葡萄牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%9C%AD%E6%8B%89%E5%B8%83%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>莫札拉布语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E8%B2%A2%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>阿拉贡语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%A5%BF%E5%98%89%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>科西嘉语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E4%B8%81%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>萨丁尼亚语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>保加利亚语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>捷克语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>丹麦语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>荷兰语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>爱沙尼亚语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>芬兰语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>德语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>希腊语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>匈牙利语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>爱尔兰语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%B1%E7%BB%B4%E4%BA%9A%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>拉脱维亚语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>立陶宛语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>马耳他语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>波兰语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>斯洛伐克语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E6%96%87%E5%B0%BC%E4%BA%9A%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>斯洛文尼亚语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>瑞典语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>克罗埃西亚语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AF%AD%E8%A8%80</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>国立国会图书馆</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>欧洲</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_西班牙语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
-  </si>
-  <si>
-    <t>安道尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>拉丁美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>赤道几内亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%92%92%E5%93%88%E6%8B%89</t>
-  </si>
-  <si>
-    <t>西撒哈拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8D%E6%B4%BB%E8%8A%82%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>复活节岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
-  </si>
-  <si>
-    <t>伦敦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>亚洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
-  </si>
-  <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80%E7%B3%BB%E5%B1%9E%E5%88%86%E7%B1%BB</t>
-  </si>
-  <si>
-    <t>语言系属分类</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E6%AC%A7%E8%AF%AD%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>印欧语系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AF%AD%E6%97%8F</t>
-  </si>
-  <si>
-    <t>意大利语族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%9B%BC%E8%AF%AD%E6%97%8F</t>
-  </si>
-  <si>
-    <t>罗曼语族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9-%E8%A5%BF%E7%BD%97%E6%9B%BC%E8%AF%AD%E6%94%AF</t>
-  </si>
-  <si>
-    <t>意大利-西罗曼语支</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%AF%94%E5%88%A9%E4%BA%9A-%E7%BD%97%E6%9B%BC%E8%AF%AD%E6%94%AF</t>
-  </si>
-  <si>
-    <t>伊比利亚-罗曼语支</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BC%8A%E6%AF%94%E5%88%A9%E4%BA%9E%E8%AA%9E%E6%94%AF</t>
-  </si>
-  <si>
-    <t>西伊比利亞語支</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%97</t>
-  </si>
-  <si>
-    <t>文字</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E5%AD%97%E6%AF%8D</t>
-  </si>
-  <si>
-    <t>拉丁字母</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>官方語言列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AF%AD%E8%A8%80%E4%B8%BA%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD%E7%9A%84%E5%9B%BD%E5%AE%B6%E5%92%8C%E5%9C%B0%E5%8C%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>官方语言为西班牙语的国家和地区列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>联合国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>欧洲联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>非洲联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E7%9A%87%E5%AE%B6%E5%AD%B8%E9%99%A2</t>
-  </si>
-  <si>
-    <t>西班牙皇家學院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ISO_639-1</t>
-  </si>
-  <si>
-    <t>ISO 639-1</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ISO_639-2</t>
-  </si>
-  <si>
-    <t>ISO 639-2</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ISO_639-3</t>
-  </si>
-  <si>
-    <t>ISO 639-3</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E9%9F%B3%E6%A0%87</t>
-  </si>
-  <si>
-    <t>国际音标</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%93%8D%E4%BD%9C%E7%B3%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>操作系统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E9%A1%B5%E6%B5%8F%E8%A7%88%E5%99%A8</t>
-  </si>
-  <si>
-    <t>网页浏览器</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%B1%E7%A0%81</t>
-  </si>
-  <si>
-    <t>乱码</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%AF%E6%8F%90%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>卡斯提亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
-  </si>
-  <si>
-    <t>語言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2%E5%9C%8B%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>拉丁美洲國家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E8%AF%AD%E8%A8%80</t>
-  </si>
-  <si>
-    <t>第一语言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E6%A8%99%E6%BA%96%E6%BC%A2%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>現代標準漢語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>漢語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>英语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>法語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>阿拉伯語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
-  </si>
-  <si>
-    <t>官方語言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>聯合國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%9B%BC%E8%AA%9E%E6%97%8F</t>
-  </si>
-  <si>
-    <t>羅曼語族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%AF%94%E5%88%A9%E5%8D%8A%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>伊比利半島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E4%BF%97%E6%8B%89%E4%B8%81%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>通俗拉丁语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%96%AF%E5%85%8B%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>巴斯克语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>阿拉伯语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%85%E9%9F%B3%E5%BC%B1%E5%8C%96</t>
-  </si>
-  <si>
-    <t>辅音弱化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%85%AD%E9%9F%B3%E5%8C%96</t>
-  </si>
-  <si>
-    <t>腭音化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%BA%AA</t>
-  </si>
-  <si>
-    <t>中世纪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>犹太人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%B1%AC%E6%9D%B1%E5%8D%B0%E5%BA%A6%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>西屬東印度群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%B8%9D%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>西班牙帝国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B8%82</t>
-  </si>
-  <si>
-    <t>纽约市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%93%88%E8%8E%B1%E5%A7%86</t>
-  </si>
-  <si>
-    <t>东哈莱姆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E4%B8%87%E6%8F%90%E6%96%AF</t>
-  </si>
-  <si>
-    <t>塞万提斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD%E5%9B%BD%E5%AE%B6%E5%92%8C%E5%9C%B0%E5%8C%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>西班牙语国家和地区列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>欧盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E5%85%B1%E5%90%8C%E5%B8%82%E5%A0%B4</t>
-  </si>
-  <si>
-    <t>南方共同市場</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
-  </si>
-  <si>
-    <t>阿根廷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>玻利维亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>哥斯达黎加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>多米尼加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
-  </si>
-  <si>
-    <t>厄瓜多尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A</t>
-  </si>
-  <si>
-    <t>萨尔瓦多</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89</t>
-  </si>
-  <si>
-    <t>危地马拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF</t>
-  </si>
-  <si>
-    <t>洪都拉斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
-  </si>
-  <si>
-    <t>尼加拉瓜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC</t>
-  </si>
-  <si>
-    <t>巴拿马</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
-  </si>
-  <si>
-    <t>巴拉圭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81</t>
-  </si>
-  <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
-  </si>
-  <si>
-    <t>乌拉圭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%86%85%E7%91%9E%E6%8B%89</t>
-  </si>
-  <si>
-    <t>委内瑞拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新墨西哥州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E5%85%B9</t>
-  </si>
-  <si>
-    <t>伯利兹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
-  </si>
-  <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
-  </si>
-  <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
-  </si>
-  <si>
-    <t>摩洛哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0</t>
-  </si>
-  <si>
-    <t>荷兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%AB%8B%E5%B0%BC%E8%BE%BE%E5%92%8C%E5%A4%9A%E5%B7%B4%E5%93%A5</t>
-  </si>
-  <si>
-    <t>特立尼达和多巴哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%AF%E8%92%82%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>卡斯蒂利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD%E5%AD%97%E6%AF%8D</t>
-  </si>
-  <si>
-    <t>西班牙语字母</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/A</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/B</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Ch</t>
-  </si>
-  <si>
-    <t>Ch</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/D</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/E</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/F</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/G</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/H</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/I</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/J</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/K</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/L</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Ll</t>
-  </si>
-  <si>
-    <t>Ll</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/M</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/N</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%C3%91</t>
-  </si>
-  <si>
-    <t>Ñ</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/O</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/P</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Q</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/R</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/S</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/T</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/U</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/V</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/W</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/X</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Y</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Z</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%C3%81</t>
-  </si>
-  <si>
-    <t>Á</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%C3%89</t>
-  </si>
-  <si>
-    <t>É</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%C3%8D</t>
-  </si>
-  <si>
-    <t>Í</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%C3%93</t>
-  </si>
-  <si>
-    <t>Ó</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%C3%9A</t>
-  </si>
-  <si>
-    <t>Ú</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%C3%9C</t>
-  </si>
-  <si>
-    <t>Ü</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E6%B3%95</t>
-  </si>
-  <si>
-    <t>语法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD%E8%AF%AD%E6%B3%95</t>
-  </si>
-  <si>
-    <t>西班牙语语法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%88%E6%8A%98%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>屈折语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E6%80%81</t>
-  </si>
-  <si>
-    <t>时态</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E6%B0%94</t>
-  </si>
-  <si>
-    <t>语气</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%93_(%E8%AF%AD%E6%B3%95)</t>
-  </si>
-  <si>
-    <t>体 (语法)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E6%80%81</t>
-  </si>
-  <si>
-    <t>语态</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%A7_(%E8%AF%AD%E6%B3%95)</t>
-  </si>
-  <si>
-    <t>性 (语法)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B0_(%E8%AF%AD%E6%B3%95)</t>
-  </si>
-  <si>
-    <t>数 (语法)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E6%8B%89%E4%B8%81%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>古典拉丁語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>俄语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E7%BD%AE%E8%A9%9E</t>
-  </si>
-  <si>
-    <t>前置詞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%B0%93%E5%AE%BE%E7%BB%93%E6%9E%84</t>
-  </si>
-  <si>
-    <t>主谓宾结构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E8%AF%8D</t>
-  </si>
-  <si>
-    <t>动词</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD%E5%8A%A8%E8%AF%8D</t>
-  </si>
-  <si>
-    <t>西班牙语动词</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Inverted_question_and_exclamation_marks</t>
-  </si>
-  <si>
-    <t>en-Inverted question and exclamation marks</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E8%A9%9E</t>
-  </si>
-  <si>
-    <t>副詞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD%E6%AD%A3%E5%86%99%E6%B3%95</t>
-  </si>
-  <si>
-    <t>西班牙语正写法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
-  </si>
-  <si>
-    <t>維基百科</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/</t>
-  </si>
-  <si>
-    <t>es-</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
-  </si>
-  <si>
-    <t>维基文库</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
-  </si>
-  <si>
-    <t>維基詞典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E%E5%8B%95%E8%A9%9E</t>
-  </si>
-  <si>
-    <t>西班牙語動詞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E%E8%A8%80</t>
-  </si>
-  <si>
-    <t>西班牙語言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>美国的西班牙语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Ye%C3%ADsmo</t>
-  </si>
-  <si>
-    <t>Yeísmo</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Seseo</t>
-  </si>
-  <si>
-    <t>Seseo</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Voseo</t>
-  </si>
-  <si>
-    <t>Voseo</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>西班牙文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E%E5%9C%8B%E5%AE%B6%E5%92%8C%E5%9C%B0%E5%8D%80%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>西班牙語國家和地區列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%A3%94</t>
-  </si>
-  <si>
-    <t>西班牙裔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%AF%94%E5%88%A9%E5%90%89%E6%99%AE%E8%B3%BD%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>伊比利吉普賽語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%93%A6%E5%8D%A1%E8%AB%BE%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>查瓦卡諾語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%BF%AA%E8%AB%BE%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>拉迪諾語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%9A%AE%E9%98%BF%E9%97%A8%E6%89%98%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>帕皮阿门托语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E8%8E%AB%E7%BD%97%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>查莫罗语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
-  </si>
-  <si>
-    <t>Wayback Machine</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%85%E6%9B%BC%E8%AA%9E%E6%97%8F</t>
-  </si>
-  <si>
-    <t>Template talk-羅曼語族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E7%BE%85%E6%9B%BC%E8%AA%9E%E6%94%AF</t>
-  </si>
-  <si>
-    <t>東羅曼語支</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>羅馬尼亞語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>阿羅馬尼亞語</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Megleno-Romanian_language</t>
-  </si>
-  <si>
-    <t>en-Megleno-Romanian language</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9-%E9%81%94%E7%88%BE%E9%A6%AC%E6%8F%90%E4%BA%9E%E8%AA%9E%E6%94%AF</t>
-  </si>
-  <si>
-    <t>義大利-達爾馬提亞語支</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E5%B0%94%E9%A9%AC%E6%8F%90%E4%BA%9A%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>达尔马提亚语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>意大利語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E5%9D%A1%E9%87%8C%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>拿坡里語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%A5%BF%E9%87%8C%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>西西里語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%B1%B3%E5%88%A9%E4%BA%9E-%E7%BE%85%E9%A6%AC%E6%B6%85%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>艾米利亞-羅馬涅語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%8F%A4%E9%87%8C%E4%BA%9A%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>利古里亚语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E5%B7%B4%E5%BA%95%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>倫巴底語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%9F%83%E8%92%99%E7%89%B9%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>皮埃蒙特語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%BC%E6%96%AF%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>威尼斯語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E4%BE%9D%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>奧依語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%87%E5%8D%A1%E5%BA%95%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>庇卡底語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B-%E6%99%AE%E7%BE%85%E6%97%BA%E6%96%AF%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>法蘭克-普羅旺斯語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E9%BE%8D%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>瓦龍語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%89%98-%E7%BE%85%E6%9B%BC%E6%96%AF%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>列托-羅曼斯語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E7%95%99%E5%88%A9%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>弗留利語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%99%BB%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>拉登語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%9B%BC%E4%BB%80%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>罗曼什语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BE%85%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>加泰羅尼亞語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E4%BC%A6%E8%A5%BF%E4%BA%9A%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>巴伦西亚语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>奧克語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%96%AF%E5%9C%96%E9%87%8C%E4%BA%9E%E6%96%AF%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>阿斯圖里亞斯語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%85%B0%E5%BE%B7%E6%96%AF%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>米兰德斯语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E6%96%AF%E7%89%B9%E9%9B%B7%E9%A6%AC%E6%9D%9C%E6%8B%89%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>埃斯特雷馬杜拉語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA-%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>犹太-西班牙语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>西班牙語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%8B%89%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>法拉語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E8%A5%BF%E4%BA%9E%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>加利西亞語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>葡萄牙語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%9C%AD%E6%8B%89%E5%B8%83%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>莫札拉布语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E8%B2%A2%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>阿拉貢語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%A5%BF%E5%98%89%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>科西嘉語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E4%B8%81%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>薩丁尼亞語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>歐洲聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>保加利亚语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>捷克语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>丹麦语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>荷蘭語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>爱沙尼亚语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>芬兰语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>法语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>德语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>希腊语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>匈牙利语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>愛爾蘭語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>意大利语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%B1%E7%BB%B4%E4%BA%9A%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>拉脱维亚语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>立陶宛语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>马耳他语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>波兰语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>斯洛伐克语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E6%96%87%E5%B0%BC%E4%BA%9A%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>斯洛文尼亚语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>瑞典語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>克羅埃西亞語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AF%AD%E8%A8%80</t>
-  </si>
-  <si>
-    <t>官方语言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>國立國會圖書館</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1740,7 +1716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I271"/>
+  <dimension ref="A1:I272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1823,7 +1799,7 @@
         <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
@@ -3096,7 +3072,7 @@
         <v>93</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -3122,10 +3098,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="G48" t="n">
         <v>4</v>
@@ -3151,10 +3127,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3180,10 +3156,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3209,10 +3185,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3238,10 +3214,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -3267,10 +3243,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3296,10 +3272,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3325,10 +3301,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3354,10 +3330,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3383,10 +3359,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G57" t="n">
         <v>9</v>
@@ -3412,10 +3388,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3441,10 +3417,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3470,10 +3446,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3499,10 +3475,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3528,10 +3504,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -3557,10 +3533,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3586,10 +3562,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3615,10 +3591,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3644,10 +3620,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3673,10 +3649,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3702,10 +3678,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3731,10 +3707,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3760,10 +3736,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3789,10 +3765,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3818,10 +3794,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3847,10 +3823,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3876,10 +3852,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3905,10 +3881,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3934,10 +3910,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3963,10 +3939,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3992,10 +3968,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4021,10 +3997,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4050,10 +4026,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4079,10 +4055,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4108,10 +4084,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4137,10 +4113,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4166,10 +4142,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4195,10 +4171,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4224,10 +4200,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4253,10 +4229,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4282,10 +4258,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4311,10 +4287,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4340,10 +4316,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4369,10 +4345,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -4398,10 +4374,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4427,10 +4403,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4456,10 +4432,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4485,13 +4461,13 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G95" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
@@ -4514,10 +4490,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G96" t="n">
         <v>12</v>
@@ -4543,10 +4519,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G97" t="n">
         <v>49</v>
@@ -4572,10 +4548,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G98" t="n">
         <v>5</v>
@@ -4601,13 +4577,13 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G99" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
@@ -4630,13 +4606,13 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G100" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
@@ -4659,13 +4635,13 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G101" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
@@ -4688,10 +4664,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G102" t="n">
         <v>8</v>
@@ -4717,13 +4693,13 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G103" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H103" t="s">
         <v>4</v>
@@ -4746,13 +4722,13 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G104" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H104" t="s">
         <v>4</v>
@@ -4775,10 +4751,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G105" t="n">
         <v>6</v>
@@ -4804,10 +4780,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G106" t="n">
         <v>3</v>
@@ -4833,13 +4809,13 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G107" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H107" t="s">
         <v>4</v>
@@ -4862,10 +4838,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -4891,13 +4867,13 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F109" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G109" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H109" t="s">
         <v>4</v>
@@ -4920,10 +4896,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F110" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G110" t="n">
         <v>32</v>
@@ -4949,10 +4925,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F111" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4978,13 +4954,13 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F112" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G112" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H112" t="s">
         <v>4</v>
@@ -5007,10 +4983,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F113" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G113" t="n">
         <v>32</v>
@@ -5036,13 +5012,13 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F114" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G114" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H114" t="s">
         <v>4</v>
@@ -5065,13 +5041,13 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F115" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G115" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -5094,10 +5070,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F116" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G116" t="n">
         <v>29</v>
@@ -5123,13 +5099,13 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F117" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G117" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H117" t="s">
         <v>4</v>
@@ -5152,13 +5128,13 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F118" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G118" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H118" t="s">
         <v>4</v>
@@ -5181,10 +5157,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F119" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G119" t="n">
         <v>12</v>
@@ -5210,10 +5186,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F120" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G120" t="n">
         <v>15</v>
@@ -5239,10 +5215,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F121" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5268,10 +5244,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F122" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G122" t="n">
         <v>3</v>
@@ -5297,10 +5273,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F123" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5326,10 +5302,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F124" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G124" t="n">
         <v>16</v>
@@ -5355,13 +5331,13 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F125" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G125" t="n">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -5384,10 +5360,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5413,10 +5389,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G127" t="n">
         <v>12</v>
@@ -5442,10 +5418,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F128" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G128" t="n">
         <v>71</v>
@@ -5471,13 +5447,13 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F129" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G129" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
@@ -5500,10 +5476,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F130" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G130" t="n">
         <v>21</v>
@@ -5529,13 +5505,13 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F131" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G131" t="n">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
@@ -5558,13 +5534,13 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F132" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G132" t="n">
-        <v>749</v>
+        <v>760</v>
       </c>
       <c r="H132" t="s">
         <v>4</v>
@@ -5587,10 +5563,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F133" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5616,10 +5592,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F134" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G134" t="n">
         <v>6</v>
@@ -5645,10 +5621,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F135" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G135" t="n">
         <v>63</v>
@@ -5674,13 +5650,13 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F136" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G136" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
@@ -5703,10 +5679,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F137" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G137" t="n">
         <v>100</v>
@@ -5732,13 +5708,13 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F138" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G138" t="n">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="H138" t="s">
         <v>4</v>
@@ -5761,10 +5737,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F139" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5790,10 +5766,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F140" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G140" t="n">
         <v>6</v>
@@ -5819,10 +5795,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F141" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G141" t="n">
         <v>9</v>
@@ -5848,13 +5824,13 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F142" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G142" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H142" t="s">
         <v>4</v>
@@ -5877,13 +5853,13 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F143" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G143" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
@@ -5906,10 +5882,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F144" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G144" t="n">
         <v>35</v>
@@ -5935,13 +5911,13 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F145" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G145" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H145" t="s">
         <v>4</v>
@@ -5964,13 +5940,13 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F146" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G146" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H146" t="s">
         <v>4</v>
@@ -5993,10 +5969,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F147" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G147" t="n">
         <v>6</v>
@@ -6022,13 +5998,13 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F148" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G148" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
@@ -6051,10 +6027,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F149" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6080,10 +6056,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F150" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G150" t="n">
         <v>6</v>
@@ -6109,10 +6085,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F151" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G151" t="n">
         <v>143</v>
@@ -6138,10 +6114,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F152" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G152" t="n">
         <v>7</v>
@@ -6167,13 +6143,13 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F153" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G153" t="n">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -6196,10 +6172,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F154" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G154" t="n">
         <v>364</v>
@@ -6225,13 +6201,13 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F155" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G155" t="n">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="H155" t="s">
         <v>4</v>
@@ -6254,10 +6230,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F156" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G156" t="n">
         <v>173</v>
@@ -6283,10 +6259,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F157" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6312,10 +6288,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F158" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G158" t="n">
         <v>4</v>
@@ -6341,10 +6317,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F159" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6370,10 +6346,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F160" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G160" t="n">
         <v>4</v>
@@ -6399,13 +6375,13 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F161" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G161" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -6428,13 +6404,13 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F162" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G162" t="n">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
@@ -6457,10 +6433,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F163" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G163" t="n">
         <v>64</v>
@@ -6486,10 +6462,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F164" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G164" t="n">
         <v>75</v>
@@ -6515,13 +6491,13 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F165" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G165" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H165" t="s">
         <v>4</v>
@@ -6544,10 +6520,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F166" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G166" t="n">
         <v>5</v>
@@ -6573,10 +6549,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F167" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6602,10 +6578,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F168" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -6631,10 +6607,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F169" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G169" t="n">
         <v>3</v>
@@ -6660,10 +6636,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F170" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -6689,10 +6665,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F171" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G171" t="n">
         <v>9</v>
@@ -6718,10 +6694,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F172" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6747,10 +6723,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F173" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G173" t="n">
         <v>15</v>
@@ -6776,10 +6752,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F174" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G174" t="n">
         <v>25</v>
@@ -6805,10 +6781,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F175" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6834,10 +6810,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F176" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -6863,10 +6839,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F177" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6892,10 +6868,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F178" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -6921,10 +6897,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F179" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G179" t="n">
         <v>16</v>
@@ -6950,10 +6926,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F180" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6979,10 +6955,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F181" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7008,10 +6984,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F182" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G182" t="n">
         <v>7</v>
@@ -7037,10 +7013,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F183" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7066,10 +7042,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F184" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7095,10 +7071,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F185" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7124,10 +7100,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F186" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -7153,10 +7129,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F187" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7182,10 +7158,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F188" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7211,10 +7187,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F189" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G189" t="n">
         <v>3</v>
@@ -7240,10 +7216,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F190" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7269,10 +7245,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F191" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7298,10 +7274,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F192" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7327,10 +7303,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F193" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7356,10 +7332,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F194" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7385,10 +7361,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F195" t="s">
-        <v>318</v>
+        <v>123</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7414,10 +7390,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F196" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7443,10 +7419,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F197" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7472,10 +7448,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F198" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7501,10 +7477,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F199" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -7530,10 +7506,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F200" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7559,10 +7535,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F201" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7588,10 +7564,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F202" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7617,10 +7593,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F203" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G203" t="n">
         <v>5</v>
@@ -7646,10 +7622,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F204" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7675,10 +7651,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F205" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G205" t="n">
         <v>4</v>
@@ -7704,10 +7680,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F206" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7733,10 +7709,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F207" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7791,10 +7767,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F209" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7820,10 +7796,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F210" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -7849,10 +7825,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F211" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G211" t="n">
         <v>3</v>
@@ -7878,10 +7854,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F212" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7907,10 +7883,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F213" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7936,10 +7912,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F214" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7965,10 +7941,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F215" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7994,10 +7970,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F216" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8023,10 +7999,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F217" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8052,10 +8028,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F218" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8081,10 +8057,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F219" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8110,10 +8086,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F220" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -8139,10 +8115,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F221" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8168,10 +8144,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F222" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8197,10 +8173,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F223" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8226,10 +8202,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F224" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8255,10 +8231,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F225" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8284,10 +8260,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F226" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8342,10 +8318,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F228" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8371,10 +8347,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F229" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8400,10 +8376,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F230" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -8429,10 +8405,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F231" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8458,10 +8434,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F232" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8487,10 +8463,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F233" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8516,10 +8492,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F234" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8545,13 +8521,13 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F235" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G235" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="H235" t="s">
         <v>4</v>
@@ -8574,10 +8550,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F236" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8603,13 +8579,13 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F237" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G237" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H237" t="s">
         <v>4</v>
@@ -8632,13 +8608,13 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F238" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G238" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H238" t="s">
         <v>4</v>
@@ -8661,10 +8637,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F239" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8690,10 +8666,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F240" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8719,10 +8695,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F241" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8748,10 +8724,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F242" t="s">
-        <v>408</v>
+        <v>54</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8777,10 +8753,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F243" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8806,10 +8782,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F244" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8835,10 +8811,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F245" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -8864,10 +8840,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F246" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -8893,13 +8869,13 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>417</v>
+        <v>85</v>
       </c>
       <c r="F247" t="s">
-        <v>418</v>
+        <v>86</v>
       </c>
       <c r="G247" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H247" t="s">
         <v>4</v>
@@ -8922,13 +8898,13 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>85</v>
+        <v>411</v>
       </c>
       <c r="F248" t="s">
-        <v>86</v>
+        <v>412</v>
       </c>
       <c r="G248" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H248" t="s">
         <v>4</v>
@@ -8951,10 +8927,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F249" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -8980,13 +8956,13 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F250" t="s">
-        <v>422</v>
+        <v>88</v>
       </c>
       <c r="G250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H250" t="s">
         <v>4</v>
@@ -9009,13 +8985,13 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F251" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H251" t="s">
         <v>4</v>
@@ -9038,10 +9014,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F252" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9067,10 +9043,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F253" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9096,10 +9072,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F254" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9125,13 +9101,13 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F255" t="s">
-        <v>432</v>
+        <v>343</v>
       </c>
       <c r="G255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H255" t="s">
         <v>4</v>
@@ -9154,13 +9130,13 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F256" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -9183,10 +9159,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F257" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9212,10 +9188,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F258" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9241,10 +9217,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F259" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9270,10 +9246,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>441</v>
+        <v>392</v>
       </c>
       <c r="F260" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9299,10 +9275,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>399</v>
+        <v>332</v>
       </c>
       <c r="F261" t="s">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9328,10 +9304,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="F262" t="s">
-        <v>338</v>
+        <v>434</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9357,10 +9333,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F263" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9386,10 +9362,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F264" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9415,10 +9391,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F265" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9444,10 +9420,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F266" t="s">
-        <v>450</v>
+        <v>92</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9473,10 +9449,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>451</v>
+        <v>81</v>
       </c>
       <c r="F267" t="s">
-        <v>452</v>
+        <v>82</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9502,13 +9478,13 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>81</v>
+        <v>442</v>
       </c>
       <c r="F268" t="s">
-        <v>82</v>
+        <v>443</v>
       </c>
       <c r="G268" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
@@ -9531,13 +9507,13 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="F269" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="G269" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H269" t="s">
         <v>4</v>
@@ -9560,10 +9536,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="F270" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9589,18 +9565,47 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="F271" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="G271" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H271" t="s">
         <v>4</v>
       </c>
       <c r="I271" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="s">
+        <v>0</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1</v>
+      </c>
+      <c r="D272" t="n">
+        <v>271</v>
+      </c>
+      <c r="E272" t="s">
+        <v>448</v>
+      </c>
+      <c r="F272" t="s">
+        <v>450</v>
+      </c>
+      <c r="G272" t="n">
+        <v>1</v>
+      </c>
+      <c r="H272" t="s">
+        <v>4</v>
+      </c>
+      <c r="I272" t="n">
         <v>3</v>
       </c>
     </row>

--- a/xlsx/西班牙语_intext.xlsx
+++ b/xlsx/西班牙语_intext.xlsx
@@ -29,7 +29,7 @@
     <t>欧洲</t>
   </si>
   <si>
-    <t>政策_政策_美國_西班牙语</t>
+    <t>体育运动_体育运动_欧洲议会_西班牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -4491,7 +4491,7 @@
         <v>190</v>
       </c>
       <c r="G95" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
@@ -4549,7 +4549,7 @@
         <v>194</v>
       </c>
       <c r="G97" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H97" t="s">
         <v>4</v>
@@ -4752,7 +4752,7 @@
         <v>208</v>
       </c>
       <c r="G104" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H104" t="s">
         <v>4</v>
@@ -4897,7 +4897,7 @@
         <v>218</v>
       </c>
       <c r="G109" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H109" t="s">
         <v>4</v>
@@ -5042,7 +5042,7 @@
         <v>228</v>
       </c>
       <c r="G114" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H114" t="s">
         <v>4</v>
@@ -5245,7 +5245,7 @@
         <v>242</v>
       </c>
       <c r="G121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
@@ -5274,7 +5274,7 @@
         <v>244</v>
       </c>
       <c r="G122" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H122" t="s">
         <v>4</v>
@@ -5448,7 +5448,7 @@
         <v>192</v>
       </c>
       <c r="G128" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H128" t="s">
         <v>4</v>
@@ -5535,7 +5535,7 @@
         <v>198</v>
       </c>
       <c r="G131" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
@@ -5680,7 +5680,7 @@
         <v>204</v>
       </c>
       <c r="G136" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
@@ -5883,7 +5883,7 @@
         <v>214</v>
       </c>
       <c r="G143" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
@@ -6231,7 +6231,7 @@
         <v>234</v>
       </c>
       <c r="G155" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H155" t="s">
         <v>4</v>
